--- a/hw5.xlsx
+++ b/hw5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\source\repos\hw5\x64\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\source\repos\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9797F08E-37CD-42AF-BE2B-EAFB1F6235DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7DC8C2-5D09-4145-9D5C-9635780D81F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51DB6737-D17C-40D1-942E-EE927B620185}"/>
+    <workbookView xWindow="3708" yWindow="3576" windowWidth="17412" windowHeight="8784" xr2:uid="{51DB6737-D17C-40D1-942E-EE927B620185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,23 +488,23 @@
         <v>1.5957691216057313</v>
       </c>
       <c r="I2">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J2">
         <f>NORMSDIST(I2)</f>
-        <v>0.9975988175258107</v>
+        <v>0.99719718536723501</v>
       </c>
       <c r="K2">
         <f>-LN(1/J2-1)/G2</f>
-        <v>3.778359797676714</v>
+        <v>3.6811869031098925</v>
       </c>
       <c r="L2">
         <f>_xll.XLL.NORMAL.CDF(K2)-$J$2</f>
-        <v>2.3222501303045151E-3</v>
+        <v>2.686739260525095E-3</v>
       </c>
       <c r="M2">
         <f>_xll.XLL.NORMAL.PDF(K2)</f>
-        <v>3.168950493358938E-4</v>
+        <v>4.5532138803998395E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -522,20 +522,20 @@
       </c>
       <c r="K3">
         <f>K2-L2/M2</f>
-        <v>-3.549776552737014</v>
+        <v>-2.2195665670722717</v>
       </c>
       <c r="L3">
         <f>_xll.XLL.NORMAL.CDF(K3)-$J$2</f>
-        <v>-0.99740603839689501</v>
+        <v>-0.98397308343617484</v>
       </c>
       <c r="M3">
         <f>_xll.XLL.NORMAL.PDF(K3)</f>
-        <v>7.3224505869922633E-4</v>
+        <v>3.3973434227122457E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4">
-        <f t="shared" ref="C4:C29" si="0">C3-D3/E3</f>
+        <f t="shared" ref="C4:C23" si="0">C3-D3/E3</f>
         <v>1.4111988415359982</v>
       </c>
       <c r="D4">
@@ -548,15 +548,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K8" si="1">K3-L3/M3</f>
-        <v>1358.5707684034905</v>
+        <v>26.74344838331584</v>
       </c>
       <c r="L4">
         <f>_xll.XLL.NORMAL.CDF(K4)-$J$2</f>
-        <v>2.4011824741893006E-3</v>
+        <v>2.8028146327649939E-3</v>
       </c>
       <c r="M4">
         <f>_xll.XLL.NORMAL.PDF(K4)</f>
-        <v>0</v>
+        <v>1.9705649106675861E-156</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -572,17 +572,17 @@
         <f>_xll.XLL.NORMAL.PDF(C5)</f>
         <v>6.2902945015257422E-2</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
+        <v>-1.4223406788540952E+153</v>
+      </c>
+      <c r="L5">
         <f>_xll.XLL.NORMAL.CDF(K5)-$J$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>-0.99719718536723501</v>
+      </c>
+      <c r="M5">
         <f>_xll.XLL.NORMAL.PDF(K5)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
